--- a/predictions полгода до/прогнозы_GP_Neural2.xlsx
+++ b/predictions полгода до/прогнозы_GP_Neural2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18414557.04369742</v>
+        <v>18615337.18896891</v>
       </c>
       <c r="C2" t="n">
-        <v>18514462.71101421</v>
+        <v>18710368.74246671</v>
       </c>
       <c r="D2" t="n">
-        <v>18608925.53923512</v>
+        <v>18800162.82715313</v>
       </c>
       <c r="E2" t="n">
-        <v>18698271.02087423</v>
+        <v>18885040.83812575</v>
       </c>
       <c r="F2" t="n">
-        <v>18782805.77646518</v>
+        <v>18965304.54741839</v>
       </c>
       <c r="G2" t="n">
-        <v>18862818.30298564</v>
+        <v>19041237.02453608</v>
       </c>
       <c r="H2" t="n">
-        <v>18938579.7693918</v>
+        <v>19113103.5785444</v>
       </c>
       <c r="I2" t="n">
-        <v>19010344.83937469</v>
+        <v>19181152.70493556</v>
       </c>
       <c r="J2" t="n">
-        <v>19078352.50541216</v>
+        <v>19245617.02414061</v>
       </c>
       <c r="K2" t="n">
-        <v>19142826.92153698</v>
+        <v>19306714.20164183</v>
       </c>
       <c r="L2" t="n">
-        <v>19203978.22495338</v>
+        <v>19364647.84206122</v>
       </c>
       <c r="M2" t="n">
-        <v>19262003.33898401</v>
+        <v>19419608.35176545</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3881965.091553092</v>
+        <v>4226184.932100296</v>
       </c>
       <c r="C3" t="n">
-        <v>3959192.003405333</v>
+        <v>4306978.567508638</v>
       </c>
       <c r="D3" t="n">
-        <v>4033016.148716331</v>
+        <v>4384136.710279584</v>
       </c>
       <c r="E3" t="n">
-        <v>4103572.47338593</v>
+        <v>4457810.822514057</v>
       </c>
       <c r="F3" t="n">
-        <v>4170995.277869701</v>
+        <v>4528150.6448493</v>
       </c>
       <c r="G3" t="n">
-        <v>4235417.291544437</v>
+        <v>4595303.306881428</v>
       </c>
       <c r="H3" t="n">
-        <v>4296968.921668172</v>
+        <v>4659412.61905992</v>
       </c>
       <c r="I3" t="n">
-        <v>4355777.653926134</v>
+        <v>4720618.520912349</v>
       </c>
       <c r="J3" t="n">
-        <v>4411967.583840132</v>
+        <v>4779056.662936449</v>
       </c>
       <c r="K3" t="n">
-        <v>4465659.060389042</v>
+        <v>4834858.10216099</v>
       </c>
       <c r="L3" t="n">
-        <v>4516968.425282836</v>
+        <v>4888149.093617439</v>
       </c>
       <c r="M3" t="n">
-        <v>4566007.833184123</v>
+        <v>4939050.962160587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1863288.897681922</v>
+        <v>2801813.262414575</v>
       </c>
       <c r="C4" t="n">
-        <v>1875617.455490515</v>
+        <v>2834965.900663555</v>
       </c>
       <c r="D4" t="n">
-        <v>1887367.247805998</v>
+        <v>2866715.621035457</v>
       </c>
       <c r="E4" t="n">
-        <v>1898568.666718856</v>
+        <v>2897116.2347157</v>
       </c>
       <c r="F4" t="n">
-        <v>1909250.249793574</v>
+        <v>2926220.895213962</v>
       </c>
       <c r="G4" t="n">
-        <v>1919438.8494194</v>
+        <v>2954081.904501319</v>
       </c>
       <c r="H4" t="n">
-        <v>1929159.775727496</v>
+        <v>2980750.543933213</v>
       </c>
       <c r="I4" t="n">
-        <v>1938436.918205798</v>
+        <v>3006276.92997998</v>
       </c>
       <c r="J4" t="n">
-        <v>1947292.850158527</v>
+        <v>3030709.894070029</v>
       </c>
       <c r="K4" t="n">
-        <v>1955748.919387087</v>
+        <v>3054096.885335505</v>
       </c>
       <c r="L4" t="n">
-        <v>1963825.327787876</v>
+        <v>3076483.894638777</v>
       </c>
       <c r="M4" t="n">
-        <v>1971541.202021167</v>
+        <v>3097915.398101151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228516.0945646763</v>
+        <v>16488450.33078015</v>
       </c>
       <c r="C5" t="n">
-        <v>233875.3982182145</v>
+        <v>16611015.12078679</v>
       </c>
       <c r="D5" t="n">
-        <v>239020.372157082</v>
+        <v>16727602.07836151</v>
       </c>
       <c r="E5" t="n">
-        <v>243957.5371991023</v>
+        <v>16838507.05666184</v>
       </c>
       <c r="F5" t="n">
-        <v>248693.6389526427</v>
+        <v>16944015.32821095</v>
       </c>
       <c r="G5" t="n">
-        <v>253235.5664516166</v>
+        <v>17044401.11657798</v>
       </c>
       <c r="H5" t="n">
-        <v>257590.2825069353</v>
+        <v>17139927.31916714</v>
       </c>
       <c r="I5" t="n">
-        <v>261764.7645686045</v>
+        <v>17230845.38794994</v>
       </c>
       <c r="J5" t="n">
-        <v>265765.9549696594</v>
+        <v>17317395.33934522</v>
       </c>
       <c r="K5" t="n">
-        <v>269600.7194955125</v>
+        <v>17399805.86860621</v>
       </c>
       <c r="L5" t="n">
-        <v>273275.8132967278</v>
+        <v>17478294.54747117</v>
       </c>
       <c r="M5" t="n">
-        <v>276797.8532469645</v>
+        <v>17553068.08716619</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7289597.065288097</v>
+        <v>4260293.025292262</v>
       </c>
       <c r="C6" t="n">
-        <v>7346583.680969566</v>
+        <v>4248233.730306447</v>
       </c>
       <c r="D6" t="n">
-        <v>7400710.246584684</v>
+        <v>4236310.617037252</v>
       </c>
       <c r="E6" t="n">
-        <v>7452128.033323556</v>
+        <v>4224564.072286814</v>
       </c>
       <c r="F6" t="n">
-        <v>7500981.64134568</v>
+        <v>4213026.646977916</v>
       </c>
       <c r="G6" t="n">
-        <v>7547408.976486266</v>
+        <v>4201724.146873131</v>
       </c>
       <c r="H6" t="n">
-        <v>7591541.297626019</v>
+        <v>4190676.594287813</v>
       </c>
       <c r="I6" t="n">
-        <v>7633503.320340782</v>
+        <v>4179899.072910488</v>
       </c>
       <c r="J6" t="n">
-        <v>7673413.364665046</v>
+        <v>4169402.467322245</v>
       </c>
       <c r="K6" t="n">
-        <v>7711383.536690384</v>
+        <v>4159194.108289406</v>
       </c>
       <c r="L6" t="n">
-        <v>7747519.935342327</v>
+        <v>4149278.334060505</v>
       </c>
       <c r="M6" t="n">
-        <v>7781922.877114177</v>
+        <v>4139656.977228373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2234835.98484277</v>
+        <v>4593450.856523275</v>
       </c>
       <c r="C7" t="n">
-        <v>2246600.72801654</v>
+        <v>4646355.964517117</v>
       </c>
       <c r="D7" t="n">
-        <v>2257804.733837113</v>
+        <v>4696879.082231939</v>
       </c>
       <c r="E7" t="n">
-        <v>2268473.774452619</v>
+        <v>4745123.543528378</v>
       </c>
       <c r="F7" t="n">
-        <v>2278632.961054482</v>
+        <v>4791190.267804921</v>
       </c>
       <c r="G7" t="n">
-        <v>2288306.661446579</v>
+        <v>4835177.465730071</v>
       </c>
       <c r="H7" t="n">
-        <v>2297518.438203312</v>
+        <v>4877180.407570183</v>
       </c>
       <c r="I7" t="n">
-        <v>2306291.004566006</v>
+        <v>4917291.247667551</v>
       </c>
       <c r="J7" t="n">
-        <v>2314646.195465364</v>
+        <v>4955598.898700297</v>
       </c>
       <c r="K7" t="n">
-        <v>2322604.951330259</v>
+        <v>4992188.949569285</v>
       </c>
       <c r="L7" t="n">
-        <v>2330187.31257882</v>
+        <v>5027143.621092796</v>
       </c>
       <c r="M7" t="n">
-        <v>2337412.422940627</v>
+        <v>5060541.754109979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197272.411120273</v>
+        <v>16689449.6786356</v>
       </c>
       <c r="C8" t="n">
-        <v>1203225.834467791</v>
+        <v>16689045.56082892</v>
       </c>
       <c r="D8" t="n">
-        <v>1208847.394448489</v>
+        <v>16688654.08683562</v>
       </c>
       <c r="E8" t="n">
-        <v>1214157.58588424</v>
+        <v>16688268.79695076</v>
       </c>
       <c r="F8" t="n">
-        <v>1219175.637145132</v>
+        <v>16687883.75364667</v>
       </c>
       <c r="G8" t="n">
-        <v>1223919.571660895</v>
+        <v>16687493.6137898</v>
       </c>
       <c r="H8" t="n">
-        <v>1228406.270578362</v>
+        <v>16687093.66251516</v>
       </c>
       <c r="I8" t="n">
-        <v>1232651.535442833</v>
+        <v>16686679.81873709</v>
       </c>
       <c r="J8" t="n">
-        <v>1236670.150047602</v>
+        <v>16686248.62028348</v>
       </c>
       <c r="K8" t="n">
-        <v>1240475.940810487</v>
+        <v>16685797.19482493</v>
       </c>
       <c r="L8" t="n">
-        <v>1244081.835213035</v>
+        <v>16685323.22149062</v>
       </c>
       <c r="M8" t="n">
-        <v>1247499.917972088</v>
+        <v>16684824.88684094</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>877586.4026876688</v>
+        <v>21562337.02690655</v>
       </c>
       <c r="C9" t="n">
-        <v>896848.4564746916</v>
+        <v>21679972.66096795</v>
       </c>
       <c r="D9" t="n">
-        <v>915305.8586627841</v>
+        <v>21791412.73739672</v>
       </c>
       <c r="E9" t="n">
-        <v>932986.3429247141</v>
+        <v>21897019.2340039</v>
       </c>
       <c r="F9" t="n">
-        <v>949918.0715568662</v>
+        <v>21997133.08717865</v>
       </c>
       <c r="G9" t="n">
-        <v>966129.3626033664</v>
+        <v>22092075.15979421</v>
       </c>
       <c r="H9" t="n">
-        <v>981648.4605913162</v>
+        <v>22182147.21850812</v>
       </c>
       <c r="I9" t="n">
-        <v>996503.3458938897</v>
+        <v>22267632.90796423</v>
       </c>
       <c r="J9" t="n">
-        <v>1010721.578112483</v>
+        <v>22348798.7119807</v>
       </c>
       <c r="K9" t="n">
-        <v>1024330.169237316</v>
+        <v>22425894.89399809</v>
       </c>
       <c r="L9" t="n">
-        <v>1037355.482731462</v>
+        <v>22499156.41091281</v>
       </c>
       <c r="M9" t="n">
-        <v>1049823.155040264</v>
+        <v>22568803.79589605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4051680.603040561</v>
+        <v>5423512.832121134</v>
       </c>
       <c r="C10" t="n">
-        <v>4073677.204596892</v>
+        <v>5528429.292619228</v>
       </c>
       <c r="D10" t="n">
-        <v>4094577.154421404</v>
+        <v>5628791.64342308</v>
       </c>
       <c r="E10" t="n">
-        <v>4114435.36886771</v>
+        <v>5724777.338692904</v>
       </c>
       <c r="F10" t="n">
-        <v>4133304.824223712</v>
+        <v>5816562.937318087</v>
       </c>
       <c r="G10" t="n">
-        <v>4151236.45238933</v>
+        <v>5904322.959280014</v>
       </c>
       <c r="H10" t="n">
-        <v>4168279.077141285</v>
+        <v>5988228.951537609</v>
       </c>
       <c r="I10" t="n">
-        <v>4184479.383667484</v>
+        <v>6068448.736756802</v>
       </c>
       <c r="J10" t="n">
-        <v>4199881.91509673</v>
+        <v>6145145.820709705</v>
       </c>
       <c r="K10" t="n">
-        <v>4214529.090705186</v>
+        <v>6218478.936549902</v>
       </c>
       <c r="L10" t="n">
-        <v>4228461.241274476</v>
+        <v>6288601.706509113</v>
       </c>
       <c r="M10" t="n">
-        <v>4241716.657804012</v>
+        <v>6355662.403697729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3646436.378690615</v>
+        <v>8127505.229897499</v>
       </c>
       <c r="C11" t="n">
-        <v>3674357.575526372</v>
+        <v>8267425.325035334</v>
       </c>
       <c r="D11" t="n">
-        <v>3700529.998372361</v>
+        <v>8400799.687104583</v>
       </c>
       <c r="E11" t="n">
-        <v>3725082.591821387</v>
+        <v>8527928.150898218</v>
       </c>
       <c r="F11" t="n">
-        <v>3748134.119536102</v>
+        <v>8649103.145000577</v>
       </c>
       <c r="G11" t="n">
-        <v>3769793.924483553</v>
+        <v>8764608.590802193</v>
       </c>
       <c r="H11" t="n">
-        <v>3790162.652629241</v>
+        <v>8874719.08575666</v>
       </c>
       <c r="I11" t="n">
-        <v>3809332.936289042</v>
+        <v>8979699.326137662</v>
       </c>
       <c r="J11" t="n">
-        <v>3827390.035171285</v>
+        <v>9079803.730162621</v>
       </c>
       <c r="K11" t="n">
-        <v>3844412.434503973</v>
+        <v>9175276.227342725</v>
       </c>
       <c r="L11" t="n">
-        <v>3860472.400656871</v>
+        <v>9266350.184580207</v>
       </c>
       <c r="M11" t="n">
-        <v>3875636.495413378</v>
+        <v>9353248.443586826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>906274.4427589029</v>
+        <v>35051638.31152034</v>
       </c>
       <c r="C12" t="n">
-        <v>874818.1167754233</v>
+        <v>35121754.88257957</v>
       </c>
       <c r="D12" t="n">
-        <v>844859.5597135723</v>
+        <v>35188733.11300075</v>
       </c>
       <c r="E12" t="n">
-        <v>816326.6378311664</v>
+        <v>35252683.68969083</v>
       </c>
       <c r="F12" t="n">
-        <v>789149.3889638782</v>
+        <v>35313718.89457381</v>
       </c>
       <c r="G12" t="n">
-        <v>763260.2420092523</v>
+        <v>35371951.59832025</v>
       </c>
       <c r="H12" t="n">
-        <v>738594.1685281247</v>
+        <v>35427494.39250934</v>
       </c>
       <c r="I12" t="n">
-        <v>715088.7783882022</v>
+        <v>35480458.85174942</v>
       </c>
       <c r="J12" t="n">
-        <v>692684.3696857989</v>
+        <v>35530954.91549075</v>
       </c>
       <c r="K12" t="n">
-        <v>671323.9416289628</v>
+        <v>35579090.37872696</v>
       </c>
       <c r="L12" t="n">
-        <v>650953.1777660251</v>
+        <v>35624970.48025119</v>
       </c>
       <c r="M12" t="n">
-        <v>631520.4057720453</v>
+        <v>35668697.57747781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>591754.9576130509</v>
+        <v>35854517.9229936</v>
       </c>
       <c r="C13" t="n">
-        <v>602876.4867804497</v>
+        <v>35842293.05430943</v>
       </c>
       <c r="D13" t="n">
-        <v>613497.7082492113</v>
+        <v>35830688.53892982</v>
       </c>
       <c r="E13" t="n">
-        <v>623639.6161861718</v>
+        <v>35819645.42246568</v>
       </c>
       <c r="F13" t="n">
-        <v>633322.9258357286</v>
+        <v>35809110.11732292</v>
       </c>
       <c r="G13" t="n">
-        <v>642567.9588607252</v>
+        <v>35799034.13840246</v>
       </c>
       <c r="H13" t="n">
-        <v>651394.5525511503</v>
+        <v>35789373.78893203</v>
       </c>
       <c r="I13" t="n">
-        <v>659821.9895414263</v>
+        <v>35780089.81892574</v>
       </c>
       <c r="J13" t="n">
-        <v>667868.945036158</v>
+        <v>35771147.07299209</v>
       </c>
       <c r="K13" t="n">
-        <v>675553.4488928765</v>
+        <v>35762514.1395126</v>
       </c>
       <c r="L13" t="n">
-        <v>682892.8602183014</v>
+        <v>35754163.00964779</v>
       </c>
       <c r="M13" t="n">
-        <v>689903.8524347991</v>
+        <v>35746068.75186837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>731850.1106514633</v>
+        <v>289904.923396647</v>
       </c>
       <c r="C14" t="n">
-        <v>710893.4893776476</v>
+        <v>296383.1553681791</v>
       </c>
       <c r="D14" t="n">
-        <v>690808.1390824467</v>
+        <v>302594.406900242</v>
       </c>
       <c r="E14" t="n">
-        <v>671568.7408270836</v>
+        <v>308547.5680046827</v>
       </c>
       <c r="F14" t="n">
-        <v>653148.0862906426</v>
+        <v>314251.7085819542</v>
       </c>
       <c r="G14" t="n">
-        <v>635517.6867767125</v>
+        <v>319715.9852852672</v>
       </c>
       <c r="H14" t="n">
-        <v>618648.2746352553</v>
+        <v>324949.5628075153</v>
       </c>
       <c r="I14" t="n">
-        <v>602510.2131439447</v>
+        <v>329961.5480003208</v>
       </c>
       <c r="J14" t="n">
-        <v>587073.8287809193</v>
+        <v>334760.9353289157</v>
       </c>
       <c r="K14" t="n">
-        <v>572309.6779233962</v>
+        <v>339356.5622942448</v>
       </c>
       <c r="L14" t="n">
-        <v>558188.7583487332</v>
+        <v>343757.0735606849</v>
       </c>
       <c r="M14" t="n">
-        <v>544682.674442783</v>
+        <v>347970.8926519454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>373011.7895754501</v>
+        <v>3107563.593498349</v>
       </c>
       <c r="C15" t="n">
-        <v>379949.2814700082</v>
+        <v>3133122.960186899</v>
       </c>
       <c r="D15" t="n">
-        <v>386571.8501337543</v>
+        <v>3157338.599937096</v>
       </c>
       <c r="E15" t="n">
-        <v>392892.9390979558</v>
+        <v>3180289.439109564</v>
       </c>
       <c r="F15" t="n">
-        <v>398925.7890052572</v>
+        <v>3202049.75571993</v>
       </c>
       <c r="G15" t="n">
-        <v>404683.3671637848</v>
+        <v>3222689.405807137</v>
       </c>
       <c r="H15" t="n">
-        <v>410178.3122118339</v>
+        <v>3242274.047989249</v>
       </c>
       <c r="I15" t="n">
-        <v>415422.8917243332</v>
+        <v>3260865.364473239</v>
       </c>
       <c r="J15" t="n">
-        <v>420428.9708364308</v>
+        <v>3278521.277121633</v>
       </c>
       <c r="K15" t="n">
-        <v>425207.9901815653</v>
+        <v>3295296.157448947</v>
       </c>
       <c r="L15" t="n">
-        <v>429770.9516456798</v>
+        <v>3311241.02966994</v>
       </c>
       <c r="M15" t="n">
-        <v>434128.4106318206</v>
+        <v>3326403.766157225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>386429.3678017706</v>
+        <v>8593013.150038809</v>
       </c>
       <c r="C16" t="n">
-        <v>394147.5992191955</v>
+        <v>8674412.849540174</v>
       </c>
       <c r="D16" t="n">
-        <v>401527.5987747535</v>
+        <v>8751700.242248774</v>
       </c>
       <c r="E16" t="n">
-        <v>408582.6389374509</v>
+        <v>8825097.248195648</v>
       </c>
       <c r="F16" t="n">
-        <v>415325.9431759641</v>
+        <v>8894815.290560663</v>
       </c>
       <c r="G16" t="n">
-        <v>421770.5933695138</v>
+        <v>8961055.412025928</v>
       </c>
       <c r="H16" t="n">
-        <v>427929.4544301555</v>
+        <v>9024008.469407082</v>
       </c>
       <c r="I16" t="n">
-        <v>433815.1138939857</v>
+        <v>9083855.389437824</v>
       </c>
       <c r="J16" t="n">
-        <v>439439.8344556242</v>
+        <v>9140767.471199512</v>
       </c>
       <c r="K16" t="n">
-        <v>444815.5176229253</v>
+        <v>9194906.722977757</v>
       </c>
       <c r="L16" t="n">
-        <v>449953.6768720374</v>
+        <v>9246426.223252118</v>
       </c>
       <c r="M16" t="n">
-        <v>454865.4188591689</v>
+        <v>9295470.497357547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2165154.465341866</v>
+        <v>4145349.836094305</v>
       </c>
       <c r="C17" t="n">
-        <v>2208600.348617077</v>
+        <v>4183419.962695569</v>
       </c>
       <c r="D17" t="n">
-        <v>2250152.359231114</v>
+        <v>4219410.655907676</v>
       </c>
       <c r="E17" t="n">
-        <v>2289884.027547121</v>
+        <v>4253451.607336611</v>
       </c>
       <c r="F17" t="n">
-        <v>2327868.696694791</v>
+        <v>4285664.120174319</v>
       </c>
       <c r="G17" t="n">
-        <v>2364179.000157475</v>
+        <v>4316161.59081766</v>
       </c>
       <c r="H17" t="n">
-        <v>2398886.435068786</v>
+        <v>4345049.979930133</v>
       </c>
       <c r="I17" t="n">
-        <v>2432061.018882155</v>
+        <v>4372428.268988013</v>
       </c>
       <c r="J17" t="n">
-        <v>2463771.018271983</v>
+        <v>4398388.899533197</v>
       </c>
       <c r="K17" t="n">
-        <v>2494082.740201116</v>
+        <v>4423018.193253562</v>
       </c>
       <c r="L17" t="n">
-        <v>2523060.376195133</v>
+        <v>4446396.751757801</v>
       </c>
       <c r="M17" t="n">
-        <v>2550765.891852438</v>
+        <v>4468599.835448235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1248961.283560823</v>
+        <v>3246919.544069678</v>
       </c>
       <c r="C18" t="n">
-        <v>1249222.547300784</v>
+        <v>3246559.825908367</v>
       </c>
       <c r="D18" t="n">
-        <v>1249429.295503346</v>
+        <v>3246103.093104437</v>
       </c>
       <c r="E18" t="n">
-        <v>1249589.042882206</v>
+        <v>3245568.076640304</v>
       </c>
       <c r="F18" t="n">
-        <v>1249708.295430593</v>
+        <v>3244970.645128269</v>
       </c>
       <c r="G18" t="n">
-        <v>1249792.687683004</v>
+        <v>3244324.220333908</v>
       </c>
       <c r="H18" t="n">
-        <v>1249847.101082062</v>
+        <v>3243640.133806311</v>
       </c>
       <c r="I18" t="n">
-        <v>1249875.766031552</v>
+        <v>3242927.932684522</v>
       </c>
       <c r="J18" t="n">
-        <v>1249882.349885395</v>
+        <v>3242195.641715612</v>
       </c>
       <c r="K18" t="n">
-        <v>1249870.032815319</v>
+        <v>3241449.987616513</v>
       </c>
       <c r="L18" t="n">
-        <v>1249841.573248183</v>
+        <v>3240696.591077898</v>
       </c>
       <c r="M18" t="n">
-        <v>1249799.364317212</v>
+        <v>3239940.131007593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65381.18152618874</v>
+        <v>4901057.14804846</v>
       </c>
       <c r="C19" t="n">
-        <v>62335.34578010626</v>
+        <v>4894614.869565561</v>
       </c>
       <c r="D19" t="n">
-        <v>59438.07730330154</v>
+        <v>4888362.024298668</v>
       </c>
       <c r="E19" t="n">
-        <v>56681.65574931726</v>
+        <v>4882297.997819528</v>
       </c>
       <c r="F19" t="n">
-        <v>54058.68405993562</v>
+        <v>4876421.097547948</v>
       </c>
       <c r="G19" t="n">
-        <v>51562.09414014313</v>
+        <v>4870728.757429898</v>
       </c>
       <c r="H19" t="n">
-        <v>49185.14793188497</v>
+        <v>4865217.712500975</v>
       </c>
       <c r="I19" t="n">
-        <v>46921.43482601084</v>
+        <v>4859884.147302479</v>
       </c>
       <c r="J19" t="n">
-        <v>44764.86620065663</v>
+        <v>4854723.821648136</v>
       </c>
       <c r="K19" t="n">
-        <v>42709.66774396226</v>
+        <v>4849732.176828235</v>
       </c>
       <c r="L19" t="n">
-        <v>40750.37010820769</v>
+        <v>4844904.424928248</v>
       </c>
       <c r="M19" t="n">
-        <v>38881.79834763054</v>
+        <v>4840235.623623937</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1964355.978520669</v>
+        <v>3287224.576823309</v>
       </c>
       <c r="C20" t="n">
-        <v>1958821.132022951</v>
+        <v>3279308.09180136</v>
       </c>
       <c r="D20" t="n">
-        <v>1953597.028841324</v>
+        <v>3271535.089727849</v>
       </c>
       <c r="E20" t="n">
-        <v>1948662.616471536</v>
+        <v>3263924.244698986</v>
       </c>
       <c r="F20" t="n">
-        <v>1943998.286165606</v>
+        <v>3256489.839879647</v>
       </c>
       <c r="G20" t="n">
-        <v>1939585.802232936</v>
+        <v>3249242.453167975</v>
       </c>
       <c r="H20" t="n">
-        <v>1935408.226737741</v>
+        <v>3242189.548761427</v>
       </c>
       <c r="I20" t="n">
-        <v>1931449.842137408</v>
+        <v>3235335.986245677</v>
       </c>
       <c r="J20" t="n">
-        <v>1927696.073782362</v>
+        <v>3228684.457638726</v>
       </c>
       <c r="K20" t="n">
-        <v>1924133.413688704</v>
+        <v>3222235.86169447</v>
       </c>
       <c r="L20" t="n">
-        <v>1920749.346607849</v>
+        <v>3215989.623706788</v>
       </c>
       <c r="M20" t="n">
-        <v>1917532.279092237</v>
+        <v>3209943.968088642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>995277.6552669331</v>
+        <v>2953169.982281595</v>
       </c>
       <c r="C21" t="n">
-        <v>998818.1106651723</v>
+        <v>2958707.791225761</v>
       </c>
       <c r="D21" t="n">
-        <v>1002247.193246327</v>
+        <v>2964067.120333314</v>
       </c>
       <c r="E21" t="n">
-        <v>1005563.281603023</v>
+        <v>2969246.315079749</v>
       </c>
       <c r="F21" t="n">
-        <v>1008765.747180432</v>
+        <v>2974245.006406993</v>
       </c>
       <c r="G21" t="n">
-        <v>1011854.795937739</v>
+        <v>2979063.930131972</v>
       </c>
       <c r="H21" t="n">
-        <v>1014831.328895167</v>
+        <v>2983704.761499524</v>
       </c>
       <c r="I21" t="n">
-        <v>1017696.819946438</v>
+        <v>2988169.96510303</v>
       </c>
       <c r="J21" t="n">
-        <v>1020453.209325545</v>
+        <v>2992462.659942389</v>
       </c>
       <c r="K21" t="n">
-        <v>1023102.81117399</v>
+        <v>2996586.499071598</v>
       </c>
       <c r="L21" t="n">
-        <v>1025648.233731881</v>
+        <v>3000545.563059241</v>
       </c>
       <c r="M21" t="n">
-        <v>1028092.310765259</v>
+        <v>3004344.266351879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926530.9507785439</v>
+        <v>9985335.391057163</v>
       </c>
       <c r="C22" t="n">
-        <v>922542.6885239482</v>
+        <v>10024274.62688318</v>
       </c>
       <c r="D22" t="n">
-        <v>918515.2866073549</v>
+        <v>10061153.74521929</v>
       </c>
       <c r="E22" t="n">
-        <v>914476.5213645697</v>
+        <v>10096091.48742729</v>
       </c>
       <c r="F22" t="n">
-        <v>910449.6210121214</v>
+        <v>10129199.8221707</v>
       </c>
       <c r="G22" t="n">
-        <v>906453.863710627</v>
+        <v>10160584.26241869</v>
       </c>
       <c r="H22" t="n">
-        <v>902505.1082598716</v>
+        <v>10190344.17968762</v>
       </c>
       <c r="I22" t="n">
-        <v>898616.2630525678</v>
+        <v>10218573.11347571</v>
       </c>
       <c r="J22" t="n">
-        <v>894797.6989251375</v>
+        <v>10245359.07418582</v>
       </c>
       <c r="K22" t="n">
-        <v>891057.6113934368</v>
+        <v>10270784.8381488</v>
       </c>
       <c r="L22" t="n">
-        <v>887402.3375055194</v>
+        <v>10294928.23362705</v>
       </c>
       <c r="M22" t="n">
-        <v>883836.6322174966</v>
+        <v>10317862.41694987</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60101.40323714074</v>
+        <v>7003515.987807572</v>
       </c>
       <c r="C23" t="n">
-        <v>59461.34738853294</v>
+        <v>6998534.888905436</v>
       </c>
       <c r="D23" t="n">
-        <v>58833.19332049601</v>
+        <v>6993970.1068362</v>
       </c>
       <c r="E23" t="n">
-        <v>58218.49985749088</v>
+        <v>6989779.58805269</v>
       </c>
       <c r="F23" t="n">
-        <v>57618.47081784904</v>
+        <v>6985925.66392985</v>
       </c>
       <c r="G23" t="n">
-        <v>57034.00721841864</v>
+        <v>6982374.607016623</v>
       </c>
       <c r="H23" t="n">
-        <v>56465.75308898184</v>
+        <v>6979096.227770209</v>
       </c>
       <c r="I23" t="n">
-        <v>55914.13550610095</v>
+        <v>6976063.509032369</v>
       </c>
       <c r="J23" t="n">
-        <v>55379.39943894558</v>
+        <v>6973252.275509953</v>
       </c>
       <c r="K23" t="n">
-        <v>54861.63796717301</v>
+        <v>6970640.895559043</v>
       </c>
       <c r="L23" t="n">
-        <v>54360.81839204766</v>
+        <v>6968210.012619764</v>
       </c>
       <c r="M23" t="n">
-        <v>53876.80472277477</v>
+        <v>6965942.303762794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8371285.514517844</v>
+        <v>8186199.71432355</v>
       </c>
       <c r="C24" t="n">
-        <v>8388689.193464637</v>
+        <v>8227323.776290208</v>
       </c>
       <c r="D24" t="n">
-        <v>8405396.913259625</v>
+        <v>8266302.831689984</v>
       </c>
       <c r="E24" t="n">
-        <v>8421420.8688097</v>
+        <v>8303258.068287611</v>
       </c>
       <c r="F24" t="n">
-        <v>8436775.848691702</v>
+        <v>8338304.038487434</v>
       </c>
       <c r="G24" t="n">
-        <v>8451478.686031222</v>
+        <v>8371548.93466112</v>
       </c>
       <c r="H24" t="n">
-        <v>8465547.784818769</v>
+        <v>8403094.867514253</v>
       </c>
       <c r="I24" t="n">
-        <v>8479002.713638425</v>
+        <v>8433038.144918233</v>
       </c>
       <c r="J24" t="n">
-        <v>8491863.859388232</v>
+        <v>8461469.548997045</v>
       </c>
       <c r="K24" t="n">
-        <v>8504152.133966565</v>
+        <v>8488474.60956955</v>
       </c>
       <c r="L24" t="n">
-        <v>8515888.727606058</v>
+        <v>8514133.872395664</v>
       </c>
       <c r="M24" t="n">
-        <v>8527094.902984321</v>
+        <v>8538523.160877377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2849022.627919415</v>
+        <v>4861555.356322017</v>
       </c>
       <c r="C25" t="n">
-        <v>2840584.20548103</v>
+        <v>4852936.46946831</v>
       </c>
       <c r="D25" t="n">
-        <v>2832462.009074988</v>
+        <v>4844703.795594329</v>
       </c>
       <c r="E25" t="n">
-        <v>2824650.880996354</v>
+        <v>4836841.158001827</v>
       </c>
       <c r="F25" t="n">
-        <v>2817144.156706871</v>
+        <v>4829332.308067542</v>
       </c>
       <c r="G25" t="n">
-        <v>2809934.027336454</v>
+        <v>4822161.119887641</v>
       </c>
       <c r="H25" t="n">
-        <v>2803011.839950917</v>
+        <v>4815311.739440076</v>
       </c>
       <c r="I25" t="n">
-        <v>2796368.345072912</v>
+        <v>4808768.696752269</v>
       </c>
       <c r="J25" t="n">
-        <v>2789993.899608297</v>
+        <v>4802516.988087445</v>
       </c>
       <c r="K25" t="n">
-        <v>2783878.632200114</v>
+        <v>4796542.133985845</v>
       </c>
       <c r="L25" t="n">
-        <v>2778012.577010894</v>
+        <v>4790830.217952428</v>
       </c>
       <c r="M25" t="n">
-        <v>2772385.781039087</v>
+        <v>4785367.90975303</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8459758.738263726</v>
+        <v>9808320.737571776</v>
       </c>
       <c r="C26" t="n">
-        <v>8508817.867926717</v>
+        <v>9832603.217432439</v>
       </c>
       <c r="D26" t="n">
-        <v>8555415.887429118</v>
+        <v>9855669.454694331</v>
       </c>
       <c r="E26" t="n">
-        <v>8599688.609544814</v>
+        <v>9877583.640385807</v>
       </c>
       <c r="F26" t="n">
-        <v>8641764.380458117</v>
+        <v>9898406.381446421</v>
       </c>
       <c r="G26" t="n">
-        <v>8681764.435045719</v>
+        <v>9918194.972013772</v>
       </c>
       <c r="H26" t="n">
-        <v>8719803.2422387</v>
+        <v>9937003.623360753</v>
       </c>
       <c r="I26" t="n">
-        <v>8755988.840265393</v>
+        <v>9954883.661708713</v>
       </c>
       <c r="J26" t="n">
-        <v>8790423.161512852</v>
+        <v>9971883.701066196</v>
       </c>
       <c r="K26" t="n">
-        <v>8823202.346739769</v>
+        <v>9988049.796668649</v>
       </c>
       <c r="L26" t="n">
-        <v>8854417.048403084</v>
+        <v>10003425.58327651</v>
       </c>
       <c r="M26" t="n">
-        <v>8884152.722867191</v>
+        <v>10018052.40152663</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12441231.75667926</v>
+        <v>4189555.991213262</v>
       </c>
       <c r="C27" t="n">
-        <v>12505771.92971356</v>
+        <v>4218771.481618285</v>
       </c>
       <c r="D27" t="n">
-        <v>12566613.03459238</v>
+        <v>4246581.856605589</v>
       </c>
       <c r="E27" t="n">
-        <v>12623998.6251822</v>
+        <v>4273052.394064322</v>
       </c>
       <c r="F27" t="n">
-        <v>12678155.35081565</v>
+        <v>4298246.766590834</v>
       </c>
       <c r="G27" t="n">
-        <v>12729294.05055917</v>
+        <v>4322226.789758727</v>
       </c>
       <c r="H27" t="n">
-        <v>12777610.80348642</v>
+        <v>4345052.235758483</v>
       </c>
       <c r="I27" t="n">
-        <v>12823287.93049673</v>
+        <v>4366780.701894671</v>
       </c>
       <c r="J27" t="n">
-        <v>12866494.94497951</v>
+        <v>4387467.52478987</v>
       </c>
       <c r="K27" t="n">
-        <v>12907389.45099298</v>
+        <v>4407165.732420325</v>
       </c>
       <c r="L27" t="n">
-        <v>12946117.98866899</v>
+        <v>4425926.02715078</v>
       </c>
       <c r="M27" t="n">
-        <v>12982816.8274183</v>
+        <v>4443796.793941915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3857471.487130642</v>
+        <v>10799536.95191972</v>
       </c>
       <c r="C28" t="n">
-        <v>3929614.878097177</v>
+        <v>10822025.03899166</v>
       </c>
       <c r="D28" t="n">
-        <v>3998579.87305665</v>
+        <v>10842848.29576576</v>
       </c>
       <c r="E28" t="n">
-        <v>4064495.302607775</v>
+        <v>10862149.04923744</v>
       </c>
       <c r="F28" t="n">
-        <v>4127488.616098881</v>
+        <v>10880056.41599789</v>
       </c>
       <c r="G28" t="n">
-        <v>4187685.16546607</v>
+        <v>10896687.54502954</v>
       </c>
       <c r="H28" t="n">
-        <v>4245207.629427075</v>
+        <v>10912148.75386053</v>
       </c>
       <c r="I28" t="n">
-        <v>4300175.559170723</v>
+        <v>10926536.56399301</v>
       </c>
       <c r="J28" t="n">
-        <v>4352705.028735876</v>
+        <v>10939938.64205489</v>
       </c>
       <c r="K28" t="n">
-        <v>4402908.375042558</v>
+        <v>10952434.65339912</v>
       </c>
       <c r="L28" t="n">
-        <v>4450894.014192343</v>
+        <v>10964097.03486383</v>
       </c>
       <c r="M28" t="n">
-        <v>4496766.322309732</v>
+        <v>10974991.6933064</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7279196.424673676</v>
+        <v>1536472.093492314</v>
       </c>
       <c r="C29" t="n">
-        <v>7408481.546777129</v>
+        <v>1558080.423124522</v>
       </c>
       <c r="D29" t="n">
-        <v>7531780.486907601</v>
+        <v>1578611.534447953</v>
       </c>
       <c r="E29" t="n">
-        <v>7649360.828988791</v>
+        <v>1598122.063962832</v>
       </c>
       <c r="F29" t="n">
-        <v>7761484.46106863</v>
+        <v>1616666.211120546</v>
       </c>
       <c r="G29" t="n">
-        <v>7868406.437213302</v>
+        <v>1634295.712002814</v>
       </c>
       <c r="H29" t="n">
-        <v>7970374.111828804</v>
+        <v>1651059.843688712</v>
       </c>
       <c r="I29" t="n">
-        <v>8067626.50497973</v>
+        <v>1667005.453007042</v>
       </c>
       <c r="J29" t="n">
-        <v>8160393.862145424</v>
+        <v>1682177.004358113</v>
       </c>
       <c r="K29" t="n">
-        <v>8248897.376465201</v>
+        <v>1696616.642159447</v>
       </c>
       <c r="L29" t="n">
-        <v>8333349.045694351</v>
+        <v>1710364.264220119</v>
       </c>
       <c r="M29" t="n">
-        <v>8413951.639728665</v>
+        <v>1723457.602982163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34561320.72503042</v>
+        <v>630836.7589142171</v>
       </c>
       <c r="C30" t="n">
-        <v>34622882.51190948</v>
+        <v>638011.9053703537</v>
       </c>
       <c r="D30" t="n">
-        <v>34681625.79591942</v>
+        <v>644802.4588020005</v>
       </c>
       <c r="E30" t="n">
-        <v>34737655.13038003</v>
+        <v>651231.2734501968</v>
       </c>
       <c r="F30" t="n">
-        <v>34791075.25203228</v>
+        <v>657319.9064944757</v>
       </c>
       <c r="G30" t="n">
-        <v>34841990.43538833</v>
+        <v>663088.6614767999</v>
       </c>
       <c r="H30" t="n">
-        <v>34890503.92243421</v>
+        <v>668556.6372506898</v>
       </c>
       <c r="I30" t="n">
-        <v>34936717.4286902</v>
+        <v>673741.7805924085</v>
       </c>
       <c r="J30" t="n">
-        <v>34980730.72371888</v>
+        <v>678660.9409795862</v>
       </c>
       <c r="K30" t="n">
-        <v>35022641.28229392</v>
+        <v>683329.9263462211</v>
       </c>
       <c r="L30" t="n">
-        <v>35062544.00115204</v>
+        <v>687763.55888065</v>
       </c>
       <c r="M30" t="n">
-        <v>35100530.97560239</v>
+        <v>691975.7301418232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35718585.97014785</v>
+        <v>657943.3571457546</v>
       </c>
       <c r="C31" t="n">
-        <v>35702695.93111932</v>
+        <v>658732.5379748624</v>
       </c>
       <c r="D31" t="n">
-        <v>35687574.12322044</v>
+        <v>659456.601694081</v>
       </c>
       <c r="E31" t="n">
-        <v>35673168.32592916</v>
+        <v>660121.5737418551</v>
       </c>
       <c r="F31" t="n">
-        <v>35659428.98216462</v>
+        <v>660732.8604428228</v>
       </c>
       <c r="G31" t="n">
-        <v>35646309.42386663</v>
+        <v>661295.317341106</v>
       </c>
       <c r="H31" t="n">
-        <v>35633765.97403562</v>
+        <v>661813.309715841</v>
       </c>
       <c r="I31" t="n">
-        <v>35621757.95755148</v>
+        <v>662290.7661636323</v>
       </c>
       <c r="J31" t="n">
-        <v>35610247.64618504</v>
+        <v>662731.2260391787</v>
       </c>
       <c r="K31" t="n">
-        <v>35599200.15752316</v>
+        <v>663137.8814683631</v>
       </c>
       <c r="L31" t="n">
-        <v>35588583.32293475</v>
+        <v>663513.6145625822</v>
       </c>
       <c r="M31" t="n">
-        <v>35578367.53634286</v>
+        <v>663861.0303997025</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147217.5618127882</v>
+        <v>1626127.571178619</v>
       </c>
       <c r="C32" t="n">
-        <v>150473.318626225</v>
+        <v>1636197.851659238</v>
       </c>
       <c r="D32" t="n">
-        <v>153593.8780800626</v>
+        <v>1645703.557525843</v>
       </c>
       <c r="E32" t="n">
-        <v>156583.8323776349</v>
+        <v>1654681.62518391</v>
       </c>
       <c r="F32" t="n">
-        <v>159447.853724882</v>
+        <v>1663166.353046566</v>
       </c>
       <c r="G32" t="n">
-        <v>162190.6479594037</v>
+        <v>1671189.595253918</v>
       </c>
       <c r="H32" t="n">
-        <v>164816.9154909924</v>
+        <v>1678780.941900011</v>
       </c>
       <c r="I32" t="n">
-        <v>167331.3187320679</v>
+        <v>1685967.886493951</v>
       </c>
       <c r="J32" t="n">
-        <v>169738.4552495182</v>
+        <v>1692775.981384188</v>
       </c>
       <c r="K32" t="n">
-        <v>172042.8359349519</v>
+        <v>1699228.981875312</v>
       </c>
       <c r="L32" t="n">
-        <v>174248.8675488234</v>
+        <v>1705348.979749508</v>
       </c>
       <c r="M32" t="n">
-        <v>176360.8390571326</v>
+        <v>1711156.526886571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3103539.815839291</v>
+        <v>2124229.957177805</v>
       </c>
       <c r="C33" t="n">
-        <v>3131646.907386631</v>
+        <v>2138170.538978934</v>
       </c>
       <c r="D33" t="n">
-        <v>3158309.914088875</v>
+        <v>2151279.350871811</v>
       </c>
       <c r="E33" t="n">
-        <v>3183610.806034416</v>
+        <v>2163615.604816347</v>
       </c>
       <c r="F33" t="n">
-        <v>3207626.994099319</v>
+        <v>2175233.815826425</v>
       </c>
       <c r="G33" t="n">
-        <v>3230431.522776008</v>
+        <v>2186184.190539364</v>
       </c>
       <c r="H33" t="n">
-        <v>3252093.265914798</v>
+        <v>2196512.985625735</v>
       </c>
       <c r="I33" t="n">
-        <v>3272677.123168588</v>
+        <v>2206262.837551072</v>
       </c>
       <c r="J33" t="n">
-        <v>3292244.215265423</v>
+        <v>2215473.065369032</v>
       </c>
       <c r="K33" t="n">
-        <v>3310852.076566517</v>
+        <v>2224179.948302092</v>
       </c>
       <c r="L33" t="n">
-        <v>3328554.84365803</v>
+        <v>2232416.979893366</v>
       </c>
       <c r="M33" t="n">
-        <v>3345403.438981652</v>
+        <v>2240215.100481426</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8173095.957939386</v>
+        <v>2394165.25971901</v>
       </c>
       <c r="C34" t="n">
-        <v>8251386.202343136</v>
+        <v>2397889.692444239</v>
       </c>
       <c r="D34" t="n">
-        <v>8325726.529376119</v>
+        <v>2401413.147821579</v>
       </c>
       <c r="E34" t="n">
-        <v>8396329.429186493</v>
+        <v>2404747.638950799</v>
       </c>
       <c r="F34" t="n">
-        <v>8463397.447322607</v>
+        <v>2407904.431558467</v>
       </c>
       <c r="G34" t="n">
-        <v>8527123.273828804</v>
+        <v>2410894.088360291</v>
       </c>
       <c r="H34" t="n">
-        <v>8587689.910934001</v>
+        <v>2413726.51147791</v>
       </c>
       <c r="I34" t="n">
-        <v>8645270.902427226</v>
+        <v>2416410.982828874</v>
       </c>
       <c r="J34" t="n">
-        <v>8700030.610321581</v>
+        <v>2418956.202460915</v>
       </c>
       <c r="K34" t="n">
-        <v>8752124.526716441</v>
+        <v>2421370.324842859</v>
       </c>
       <c r="L34" t="n">
-        <v>8801699.610679269</v>
+        <v>2423660.993147619</v>
       </c>
       <c r="M34" t="n">
-        <v>8848894.641726851</v>
+        <v>2425835.371584035</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4014718.283041894</v>
+        <v>1627421.631495208</v>
       </c>
       <c r="C35" t="n">
-        <v>4053783.924962118</v>
+        <v>1642230.820330953</v>
       </c>
       <c r="D35" t="n">
-        <v>4090729.641540006</v>
+        <v>1656183.22250708</v>
       </c>
       <c r="E35" t="n">
-        <v>4125685.97968033</v>
+        <v>1669336.09037729</v>
       </c>
       <c r="F35" t="n">
-        <v>4158775.274984643</v>
+        <v>1681742.688398423</v>
       </c>
       <c r="G35" t="n">
-        <v>4190112.085689172</v>
+        <v>1693452.537092626</v>
       </c>
       <c r="H35" t="n">
-        <v>4219803.624887004</v>
+        <v>1704511.652559811</v>
       </c>
       <c r="I35" t="n">
-        <v>4247950.185610324</v>
+        <v>1714962.778810574</v>
       </c>
       <c r="J35" t="n">
-        <v>4274645.554746091</v>
+        <v>1724845.611003594</v>
       </c>
       <c r="K35" t="n">
-        <v>4299977.412869871</v>
+        <v>1734197.008314792</v>
       </c>
       <c r="L35" t="n">
-        <v>4324027.717981607</v>
+        <v>1743051.195658233</v>
       </c>
       <c r="M35" t="n">
-        <v>4346873.071810663</v>
+        <v>1751439.953870796</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3199416.44933885</v>
+        <v>1356500.227913003</v>
       </c>
       <c r="C36" t="n">
-        <v>3198607.454741806</v>
+        <v>1361060.064493785</v>
       </c>
       <c r="D36" t="n">
-        <v>3197688.294666965</v>
+        <v>1365366.880623251</v>
       </c>
       <c r="E36" t="n">
-        <v>3196681.78709127</v>
+        <v>1369436.283712305</v>
       </c>
       <c r="F36" t="n">
-        <v>3195607.328738123</v>
+        <v>1373282.901859485</v>
       </c>
       <c r="G36" t="n">
-        <v>3194481.370355692</v>
+        <v>1376920.436799677</v>
       </c>
       <c r="H36" t="n">
-        <v>3193317.828606881</v>
+        <v>1380361.716004912</v>
       </c>
       <c r="I36" t="n">
-        <v>3192128.442577034</v>
+        <v>1383618.74349921</v>
       </c>
       <c r="J36" t="n">
-        <v>3190923.081998203</v>
+        <v>1386702.749062041</v>
       </c>
       <c r="K36" t="n">
-        <v>3189710.01346432</v>
+        <v>1389624.235583931</v>
       </c>
       <c r="L36" t="n">
-        <v>3188496.130164955</v>
+        <v>1392393.024407249</v>
       </c>
       <c r="M36" t="n">
-        <v>3187287.14997109</v>
+        <v>1395018.298556043</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4989590.817215286</v>
+        <v>3885157.65377439</v>
       </c>
       <c r="C37" t="n">
-        <v>4984990.829759598</v>
+        <v>3887273.916189356</v>
       </c>
       <c r="D37" t="n">
-        <v>4980466.197034068</v>
+        <v>3889206.888232755</v>
       </c>
       <c r="E37" t="n">
-        <v>4976022.620613568</v>
+        <v>3890972.716323094</v>
       </c>
       <c r="F37" t="n">
-        <v>4971664.436058708</v>
+        <v>3892585.977664975</v>
       </c>
       <c r="G37" t="n">
-        <v>4967394.820675857</v>
+        <v>3894059.848733271</v>
       </c>
       <c r="H37" t="n">
-        <v>4963215.97293222</v>
+        <v>3895406.25373817</v>
       </c>
       <c r="I37" t="n">
-        <v>4959129.267142944</v>
+        <v>3896635.995736267</v>
       </c>
       <c r="J37" t="n">
-        <v>4955135.386642128</v>
+        <v>3897758.872651013</v>
       </c>
       <c r="K37" t="n">
-        <v>4951234.438242853</v>
+        <v>3898783.780128203</v>
       </c>
       <c r="L37" t="n">
-        <v>4947426.050474226</v>
+        <v>3899718.802875677</v>
       </c>
       <c r="M37" t="n">
-        <v>4943709.457746401</v>
+        <v>3900571.295903344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3402730.882985741</v>
+        <v>3398992.044385113</v>
       </c>
       <c r="C38" t="n">
-        <v>3398719.478007048</v>
+        <v>3409693.120828077</v>
       </c>
       <c r="D38" t="n">
-        <v>3394664.715141058</v>
+        <v>3419803.320361316</v>
       </c>
       <c r="E38" t="n">
-        <v>3390595.461269602</v>
+        <v>3429358.619303174</v>
       </c>
       <c r="F38" t="n">
-        <v>3386535.700431794</v>
+        <v>3438392.785500012</v>
       </c>
       <c r="G38" t="n">
-        <v>3382505.219418705</v>
+        <v>3446937.492427699</v>
       </c>
       <c r="H38" t="n">
-        <v>3378520.205698967</v>
+        <v>3455022.432240255</v>
       </c>
       <c r="I38" t="n">
-        <v>3374593.767659485</v>
+        <v>3462675.42668891</v>
       </c>
       <c r="J38" t="n">
-        <v>3370736.386263534</v>
+        <v>3469922.535087094</v>
       </c>
       <c r="K38" t="n">
-        <v>3366956.306395948</v>
+        <v>3476788.158711746</v>
       </c>
       <c r="L38" t="n">
-        <v>3363259.875298172</v>
+        <v>3483295.141191788</v>
       </c>
       <c r="M38" t="n">
-        <v>3359651.834745452</v>
+        <v>3489464.864589512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2862137.670139104</v>
+        <v>4431848.062835246</v>
       </c>
       <c r="C39" t="n">
-        <v>2865554.59345454</v>
+        <v>4444154.625815362</v>
       </c>
       <c r="D39" t="n">
-        <v>2868887.503870219</v>
+        <v>4455816.69134447</v>
       </c>
       <c r="E39" t="n">
-        <v>2872131.63942337</v>
+        <v>4466872.38596639</v>
       </c>
       <c r="F39" t="n">
-        <v>2875283.386346042</v>
+        <v>4477357.393622994</v>
       </c>
       <c r="G39" t="n">
-        <v>2878340.150848716</v>
+        <v>4487305.128842339</v>
       </c>
       <c r="H39" t="n">
-        <v>2881300.237439185</v>
+        <v>4496746.894103572</v>
       </c>
       <c r="I39" t="n">
-        <v>2884162.735028356</v>
+        <v>4505712.023595214</v>
       </c>
       <c r="J39" t="n">
-        <v>2886927.411566585</v>
+        <v>4514228.015168503</v>
       </c>
       <c r="K39" t="n">
-        <v>2889594.61755088</v>
+        <v>4522320.651946947</v>
       </c>
       <c r="L39" t="n">
-        <v>2892165.198432356</v>
+        <v>4530014.114789486</v>
       </c>
       <c r="M39" t="n">
-        <v>2894640.415721774</v>
+        <v>4537331.086582184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9832081.35098809</v>
+        <v>4640981.639306828</v>
       </c>
       <c r="C40" t="n">
-        <v>9871219.747623473</v>
+        <v>4656939.573464841</v>
       </c>
       <c r="D40" t="n">
-        <v>9908281.345187157</v>
+        <v>4672019.206982382</v>
       </c>
       <c r="E40" t="n">
-        <v>9943386.694353342</v>
+        <v>4686273.743869953</v>
       </c>
       <c r="F40" t="n">
-        <v>9976649.346265137</v>
+        <v>4699753.161224701</v>
       </c>
       <c r="G40" t="n">
-        <v>10008176.19867459</v>
+        <v>4712504.369752653</v>
       </c>
       <c r="H40" t="n">
-        <v>10038067.8358669</v>
+        <v>4724571.374038428</v>
       </c>
       <c r="I40" t="n">
-        <v>10066418.86064237</v>
+        <v>4735995.430792637</v>
       </c>
       <c r="J40" t="n">
-        <v>10093318.21695545</v>
+        <v>4746815.203700528</v>
       </c>
       <c r="K40" t="n">
-        <v>10118849.5021196</v>
+        <v>4757066.913826525</v>
       </c>
       <c r="L40" t="n">
-        <v>10143091.26774505</v>
+        <v>4766784.484802358</v>
       </c>
       <c r="M40" t="n">
-        <v>10166117.30882296</v>
+        <v>4775999.682246447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6862240.263265699</v>
+        <v>2680030.965829387</v>
       </c>
       <c r="C41" t="n">
-        <v>6851413.85852775</v>
+        <v>2688166.961220317</v>
       </c>
       <c r="D41" t="n">
-        <v>6841203.2200073</v>
+        <v>2695859.989931986</v>
       </c>
       <c r="E41" t="n">
-        <v>6831561.965284467</v>
+        <v>2703135.869388491</v>
       </c>
       <c r="F41" t="n">
-        <v>6822447.565900594</v>
+        <v>2710018.965931647</v>
       </c>
       <c r="G41" t="n">
-        <v>6813821.038422287</v>
+        <v>2716532.254484951</v>
       </c>
       <c r="H41" t="n">
-        <v>6805646.654054731</v>
+        <v>2722697.379789822</v>
       </c>
       <c r="I41" t="n">
-        <v>6797891.667281359</v>
+        <v>2728534.718380533</v>
       </c>
       <c r="J41" t="n">
-        <v>6790526.06347692</v>
+        <v>2734063.440581359</v>
       </c>
       <c r="K41" t="n">
-        <v>6783522.325143844</v>
+        <v>2739301.571945965</v>
       </c>
       <c r="L41" t="n">
-        <v>6776855.216109276</v>
+        <v>2744266.05365444</v>
       </c>
       <c r="M41" t="n">
-        <v>6770501.582937181</v>
+        <v>2748972.801483355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8025164.796777308</v>
+        <v>3602583.785676092</v>
       </c>
       <c r="C42" t="n">
-        <v>8066282.572877347</v>
+        <v>3611687.39477706</v>
       </c>
       <c r="D42" t="n">
-        <v>8105253.725467175</v>
+        <v>3620290.85476388</v>
       </c>
       <c r="E42" t="n">
-        <v>8142199.729468942</v>
+        <v>3628423.870503917</v>
       </c>
       <c r="F42" t="n">
-        <v>8177235.360356569</v>
+        <v>3636114.409965284</v>
       </c>
       <c r="G42" t="n">
-        <v>8210468.981117636</v>
+        <v>3643388.785353519</v>
       </c>
       <c r="H42" t="n">
-        <v>8242002.830763638</v>
+        <v>3650271.734225728</v>
       </c>
       <c r="I42" t="n">
-        <v>8271933.31186381</v>
+        <v>3656786.499883793</v>
       </c>
       <c r="J42" t="n">
-        <v>8300351.274983406</v>
+        <v>3662954.910441205</v>
       </c>
       <c r="K42" t="n">
-        <v>8327342.29825744</v>
+        <v>3668797.456080683</v>
       </c>
       <c r="L42" t="n">
-        <v>8352986.960666329</v>
+        <v>3674333.364104271</v>
       </c>
       <c r="M42" t="n">
-        <v>8377361.107820481</v>
+        <v>3679580.67146679</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4873416.298121044</v>
+        <v>2789072.355253801</v>
       </c>
       <c r="C43" t="n">
-        <v>4864392.986751463</v>
+        <v>2792090.378663756</v>
       </c>
       <c r="D43" t="n">
-        <v>4855728.87605162</v>
+        <v>2794977.249137625</v>
       </c>
       <c r="E43" t="n">
-        <v>4847413.170698432</v>
+        <v>2797735.911691122</v>
       </c>
       <c r="F43" t="n">
-        <v>4839434.26617413</v>
+        <v>2800369.720522583</v>
       </c>
       <c r="G43" t="n">
-        <v>4831780.036277918</v>
+        <v>2802882.344250314</v>
       </c>
       <c r="H43" t="n">
-        <v>4824438.064201044</v>
+        <v>2805277.683942854</v>
       </c>
       <c r="I43" t="n">
-        <v>4817395.826774931</v>
+        <v>2807559.802826308</v>
       </c>
       <c r="J43" t="n">
-        <v>4810640.839993624</v>
+        <v>2809732.86652299</v>
       </c>
       <c r="K43" t="n">
-        <v>4804160.772601375</v>
+        <v>2811801.092699178</v>
       </c>
       <c r="L43" t="n">
-        <v>4797943.533432612</v>
+        <v>2813768.709029421</v>
       </c>
       <c r="M43" t="n">
-        <v>4791977.337275421</v>
+        <v>2815639.918477282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9832617.270093143</v>
+        <v>5081443.437003121</v>
       </c>
       <c r="C44" t="n">
-        <v>9860264.90895021</v>
+        <v>5086712.226491086</v>
       </c>
       <c r="D44" t="n">
-        <v>9886552.245652974</v>
+        <v>5091710.57713756</v>
       </c>
       <c r="E44" t="n">
-        <v>9911552.109856725</v>
+        <v>5096449.590887263</v>
       </c>
       <c r="F44" t="n">
-        <v>9935332.985353172</v>
+        <v>5100940.392795146</v>
       </c>
       <c r="G44" t="n">
-        <v>9957959.373353958</v>
+        <v>5105194.033274658</v>
       </c>
       <c r="H44" t="n">
-        <v>9979492.10215652</v>
+        <v>5109221.408563308</v>
       </c>
       <c r="I44" t="n">
-        <v>9999988.593889415</v>
+        <v>5113033.197019197</v>
       </c>
       <c r="J44" t="n">
-        <v>10019503.09680927</v>
+        <v>5116639.80905991</v>
       </c>
       <c r="K44" t="n">
-        <v>10038086.8899743</v>
+        <v>5120051.348781265</v>
       </c>
       <c r="L44" t="n">
-        <v>10055788.46566212</v>
+        <v>5123277.585496001</v>
       </c>
       <c r="M44" t="n">
-        <v>10072653.69374228</v>
+        <v>5126327.933646008</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4119002.037660688</v>
+        <v>2692175.739098758</v>
       </c>
       <c r="C45" t="n">
-        <v>4148607.438270092</v>
+        <v>2697848.175129086</v>
       </c>
       <c r="D45" t="n">
-        <v>4176837.196558475</v>
+        <v>2703268.593352012</v>
       </c>
       <c r="E45" t="n">
-        <v>4203751.073342532</v>
+        <v>2708445.737462059</v>
       </c>
       <c r="F45" t="n">
-        <v>4229407.886030853</v>
+        <v>2713388.561634354</v>
       </c>
       <c r="G45" t="n">
-        <v>4253865.190911293</v>
+        <v>2718106.124575287</v>
       </c>
       <c r="H45" t="n">
-        <v>4277179.035813332</v>
+        <v>2722607.500683896</v>
       </c>
       <c r="I45" t="n">
-        <v>4299403.77253896</v>
+        <v>2726901.706395961</v>
       </c>
       <c r="J45" t="n">
-        <v>4320591.919762015</v>
+        <v>2730997.63987577</v>
       </c>
       <c r="K45" t="n">
-        <v>4340794.06829235</v>
+        <v>2734904.032358713</v>
       </c>
       <c r="L45" t="n">
-        <v>4360058.821651846</v>
+        <v>2738629.409587376</v>
       </c>
       <c r="M45" t="n">
-        <v>4378432.765855849</v>
+        <v>2742182.061927341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10815790.15657726</v>
+        <v>2084574.083232868</v>
       </c>
       <c r="C46" t="n">
-        <v>10842516.49269757</v>
+        <v>2083047.254192975</v>
       </c>
       <c r="D46" t="n">
-        <v>10867324.38137192</v>
+        <v>2081576.057031886</v>
       </c>
       <c r="E46" t="n">
-        <v>10890369.95119917</v>
+        <v>2080158.155262175</v>
       </c>
       <c r="F46" t="n">
-        <v>10911795.64250211</v>
+        <v>2078791.239453536</v>
       </c>
       <c r="G46" t="n">
-        <v>10931731.4086751</v>
+        <v>2077473.047735622</v>
       </c>
       <c r="H46" t="n">
-        <v>10950295.82528308</v>
+        <v>2076201.380816818</v>
       </c>
       <c r="I46" t="n">
-        <v>10967597.11020181</v>
+        <v>2074974.112605941</v>
       </c>
       <c r="J46" t="n">
-        <v>10983734.05901481</v>
+        <v>2073789.197340394</v>
       </c>
       <c r="K46" t="n">
-        <v>10998796.90046248</v>
+        <v>2072644.673953067</v>
       </c>
       <c r="L46" t="n">
-        <v>11012868.0770568</v>
+        <v>2071538.66828707</v>
       </c>
       <c r="M46" t="n">
-        <v>11026022.95609522</v>
+        <v>2070469.393644386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1425303.019601047</v>
+        <v>1427563.198958814</v>
       </c>
       <c r="C47" t="n">
-        <v>1445946.102544755</v>
+        <v>1449240.231318608</v>
       </c>
       <c r="D47" t="n">
-        <v>1465565.453417063</v>
+        <v>1469850.377842844</v>
       </c>
       <c r="E47" t="n">
-        <v>1484214.218808055</v>
+        <v>1489447.880870342</v>
       </c>
       <c r="F47" t="n">
-        <v>1501943.359469429</v>
+        <v>1508084.93198134</v>
       </c>
       <c r="G47" t="n">
-        <v>1518801.605482876</v>
+        <v>1525811.590208471</v>
       </c>
       <c r="H47" t="n">
-        <v>1534835.443279564</v>
+        <v>1542675.738120869</v>
       </c>
       <c r="I47" t="n">
-        <v>1550089.128197685</v>
+        <v>1558723.068708837</v>
       </c>
       <c r="J47" t="n">
-        <v>1564604.717247292</v>
+        <v>1573997.097017571</v>
       </c>
       <c r="K47" t="n">
-        <v>1578422.117597044</v>
+        <v>1588539.191419408</v>
       </c>
       <c r="L47" t="n">
-        <v>1591579.147030801</v>
+        <v>1602388.620202184</v>
       </c>
       <c r="M47" t="n">
-        <v>1604111.603259683</v>
+        <v>1615582.609853163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>613178.4728542184</v>
+        <v>4130184.143150389</v>
       </c>
       <c r="C48" t="n">
-        <v>620632.2351288921</v>
+        <v>4155436.165538415</v>
       </c>
       <c r="D48" t="n">
-        <v>627693.6792969098</v>
+        <v>4179439.584745854</v>
       </c>
       <c r="E48" t="n">
-        <v>634385.390661282</v>
+        <v>4202257.936556548</v>
       </c>
       <c r="F48" t="n">
-        <v>640728.7582902364</v>
+        <v>4223952.226437137</v>
       </c>
       <c r="G48" t="n">
-        <v>646744.0020926339</v>
+        <v>4244580.88153021</v>
       </c>
       <c r="H48" t="n">
-        <v>652450.2075496032</v>
+        <v>4264199.73489885</v>
       </c>
       <c r="I48" t="n">
-        <v>657865.3660158277</v>
+        <v>4282862.036313862</v>
       </c>
       <c r="J48" t="n">
-        <v>663006.4188799239</v>
+        <v>4300618.484605029</v>
       </c>
       <c r="K48" t="n">
-        <v>667889.3041979256</v>
+        <v>4317517.277263343</v>
       </c>
       <c r="L48" t="n">
-        <v>672529.0046883202</v>
+        <v>4333604.173578829</v>
       </c>
       <c r="M48" t="n">
-        <v>676939.5961970817</v>
+        <v>4348922.568154365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>672678.2796992753</v>
+        <v>523244.8474106565</v>
       </c>
       <c r="C49" t="n">
-        <v>674037.0472855214</v>
+        <v>526581.660082845</v>
       </c>
       <c r="D49" t="n">
-        <v>675303.9600150045</v>
+        <v>529741.2073639408</v>
       </c>
       <c r="E49" t="n">
-        <v>676486.2033896223</v>
+        <v>532734.3026216328</v>
       </c>
       <c r="F49" t="n">
-        <v>677590.3237081245</v>
+        <v>535571.0432608593</v>
       </c>
       <c r="G49" t="n">
-        <v>678622.2906438848</v>
+        <v>538260.8613432813</v>
       </c>
       <c r="H49" t="n">
-        <v>679587.5533724036</v>
+        <v>540812.5701301526</v>
       </c>
       <c r="I49" t="n">
-        <v>680491.0908952579</v>
+        <v>543234.4069932606</v>
       </c>
       <c r="J49" t="n">
-        <v>681337.4571568202</v>
+        <v>545534.0730661694</v>
       </c>
       <c r="K49" t="n">
-        <v>682130.8214981975</v>
+        <v>547718.7699556127</v>
       </c>
       <c r="L49" t="n">
-        <v>682875.0049442034</v>
+        <v>549795.2337827384</v>
       </c>
       <c r="M49" t="n">
-        <v>683573.5127680246</v>
+        <v>551769.7667896412</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1578736.251648428</v>
+        <v>2047494.537314594</v>
       </c>
       <c r="C50" t="n">
-        <v>1588874.535569841</v>
+        <v>2069740.833201468</v>
       </c>
       <c r="D50" t="n">
-        <v>1598437.661697984</v>
+        <v>2090844.31268084</v>
       </c>
       <c r="E50" t="n">
-        <v>1607463.77926787</v>
+        <v>2110869.187523007</v>
       </c>
       <c r="F50" t="n">
-        <v>1615988.278466815</v>
+        <v>2129876.282467186</v>
       </c>
       <c r="G50" t="n">
-        <v>1624043.993866196</v>
+        <v>2147923.134778306</v>
       </c>
       <c r="H50" t="n">
-        <v>1631661.394087322</v>
+        <v>2165064.107282653</v>
       </c>
       <c r="I50" t="n">
-        <v>1638868.758298306</v>
+        <v>2181350.510935053</v>
       </c>
       <c r="J50" t="n">
-        <v>1645692.340182059</v>
+        <v>2196830.733653277</v>
       </c>
       <c r="K50" t="n">
-        <v>1652156.520055665</v>
+        <v>2211550.372756869</v>
       </c>
       <c r="L50" t="n">
-        <v>1658283.945827154</v>
+        <v>2225552.368839324</v>
       </c>
       <c r="M50" t="n">
-        <v>1664095.663477959</v>
+        <v>2238877.139343828</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2087209.252862193</v>
+        <v>1987755.694339648</v>
       </c>
       <c r="C51" t="n">
-        <v>2102209.971533155</v>
+        <v>2012020.518888101</v>
       </c>
       <c r="D51" t="n">
-        <v>2116324.441967841</v>
+        <v>2035095.500156969</v>
       </c>
       <c r="E51" t="n">
-        <v>2129614.681960182</v>
+        <v>2057041.943190023</v>
       </c>
       <c r="F51" t="n">
-        <v>2142137.937041838</v>
+        <v>2077918.537195578</v>
       </c>
       <c r="G51" t="n">
-        <v>2153947.053154737</v>
+        <v>2097781.346417397</v>
       </c>
       <c r="H51" t="n">
-        <v>2165090.82413256</v>
+        <v>2116683.826236203</v>
       </c>
       <c r="I51" t="n">
-        <v>2175614.314472232</v>
+        <v>2134676.859754235</v>
       </c>
       <c r="J51" t="n">
-        <v>2185559.158232817</v>
+        <v>2151808.810758829</v>
       </c>
       <c r="K51" t="n">
-        <v>2194963.835135056</v>
+        <v>2168125.589526519</v>
       </c>
       <c r="L51" t="n">
-        <v>2203863.925084151</v>
+        <v>2183670.728444278</v>
       </c>
       <c r="M51" t="n">
-        <v>2212292.342415746</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2378485.997118291</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2382159.267373297</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2385633.290723953</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2388920.054309212</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2392030.791524608</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2394976.027418122</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2397765.622093074</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2400408.812017068</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2402914.249196582</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2405290.038222983</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2407543.771221027</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2409682.560763188</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1586202.988868168</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1601786.333240377</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1616481.751860071</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1630347.046025358</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1643436.18426451</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1655799.508369582</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1667483.941383578</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1678533.193897966</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1688987.965938739</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1698886.14245314</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1708262.981007152</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1717151.290772499</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1348717.610803671</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1353570.322550781</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1358156.064799856</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1362491.00361149</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1366590.323119823</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1370468.274805516</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1374138.226591807</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1377612.711241454</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1380903.473647494</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1384021.516714681</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1386977.145604573</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1389780.010184988</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3863234.277582041</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3865349.827177724</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3867264.637592656</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3868997.696886443</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3870566.046619906</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3871984.997506287</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3873268.31932853</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3874428.408454943</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3875476.435812649</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3876422.477774162</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3877275.632077197</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3878044.120608561</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3356671.823072135</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3367460.17781312</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3377654.60245581</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3387291.314981446</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3396404.297950208</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3405025.415881537</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3413184.531155296</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3420909.617419824</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3428226.86973957</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3435160.810905479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3441734.393507667</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3447969.09749452</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4368574.333572984</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4380411.680877268</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4391610.000481367</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4402209.319424897</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4412246.824877277</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4421757.099020302</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4430772.329418421</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4439322.498255789</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4447435.553224698</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4455137.562422037</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4462452.855206341</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4469404.150681764</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4596782.337135598</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4613287.302140519</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4628889.647934422</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4643643.441470176</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4657599.533562467</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4670805.711438537</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4683306.852315947</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4695145.07608974</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4706359.895618245</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4716988.363439932</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4727065.214025274</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4736623.000922441</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2649470.392305687</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2657559.696698263</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2665202.157005131</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2672424.037873201</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2679250.102732897</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2685703.680401787</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2691806.732145056</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2697579.918537825</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2703042.66558452</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2708213.229634307</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2713108.760723494</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2717745.364051595</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3586364.226192027</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3595936.002833895</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3604981.707632348</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3613532.438398652</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3621617.477418572</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3629264.37883912</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3636499.055067688</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3643345.861682713</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3649827.680419311</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3655965.999863908</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3661780.993571453</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3667291.595368356</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2762865.209473111</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2765351.732986636</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2767730.973760046</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2770005.323167667</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2772177.480052315</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2774250.384118825</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2776227.156870402</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2778111.049850665</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2779905.399782196</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2781613.590091437</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2783239.018263206</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2784785.068441957</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5045165.670849666</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5049688.040566713</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5053971.683391787</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5058026.733539075</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5061863.266890146</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5065491.232243203</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5068920.394851051</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5072160.290944524</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5075220.19193735</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5078109.07708396</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5080835.613434732</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5083408.14203231</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2652632.589949243</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2657465.272580989</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2662079.652223401</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2666483.303689018</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2670683.968131624</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2674689.469109029</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2678507.641153499</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2682146.269739799</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2685613.041493937</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2688915.503515884</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2692061.030728795</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2695056.800236441</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2084693.637681946</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2083083.864269819</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2081528.837442607</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2080026.746647824</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2078575.722933155</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2077173.870865867</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2075819.293642465</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2074510.112590685</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2073244.482085604</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2072020.600724477</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2070836.719474118</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2069691.147377919</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1364107.583198383</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1385914.694623664</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1406669.455831736</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1426423.323315307</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1445226.055825993</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1463125.595234424</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1480167.988273174</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1496397.342034131</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1511855.807084456</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1526583.582938731</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1540618.94141452</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1553998.264068052</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3985342.622083083</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4009006.340428323</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4031499.087727189</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4052880.783073753</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4073208.893019572</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4092538.401782453</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4110921.808941305</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4128409.149757668</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4145048.033851773</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4160883.698534966</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4175959.073575512</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4190314.854665473</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>512489.3279869184</v>
-      </c>
-      <c r="C67" t="n">
-        <v>515941.6619077809</v>
-      </c>
-      <c r="D67" t="n">
-        <v>519209.8442649655</v>
-      </c>
-      <c r="E67" t="n">
-        <v>522305.2100370862</v>
-      </c>
-      <c r="F67" t="n">
-        <v>525238.331656415</v>
-      </c>
-      <c r="G67" t="n">
-        <v>528019.074060794</v>
-      </c>
-      <c r="H67" t="n">
-        <v>530656.6453041807</v>
-      </c>
-      <c r="I67" t="n">
-        <v>533159.6431723796</v>
-      </c>
-      <c r="J67" t="n">
-        <v>535536.0981919952</v>
-      </c>
-      <c r="K67" t="n">
-        <v>537793.5133710951</v>
-      </c>
-      <c r="L67" t="n">
-        <v>539938.9009664245</v>
-      </c>
-      <c r="M67" t="n">
-        <v>541978.8165363036</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1964685.422013134</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1986976.063752607</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2008129.865135133</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2028209.887025803</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2047275.960707918</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2065384.767715797</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2082589.935525</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2098942.144858554</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2114489.245115668</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2129276.375033095</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2143346.086219013</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2156738.467661873</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1877658.653920591</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1901222.426680937</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1923637.037483081</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1944961.181115046</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1965251.09669511</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1984560.552044109</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2002940.852889419</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2020440.872288674</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2037107.09630765</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2052983.682513297</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2068112.528357834</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2082533.34695375</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2091620.423123568</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2109297.936690718</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2126182.746598125</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2142311.762704641</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2157720.26299715</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2172441.981954008</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2186509.184148848</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2199952.72701782</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2212802.115823239</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2225085.553125501</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2236829.984486461</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2248061.141661674</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>15726951.36645108</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15840073.09417713</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15947677.67447454</v>
-      </c>
-      <c r="E71" t="n">
-        <v>16050037.69658703</v>
-      </c>
-      <c r="F71" t="n">
-        <v>16147416.06980187</v>
-      </c>
-      <c r="G71" t="n">
-        <v>16240065.58102524</v>
-      </c>
-      <c r="H71" t="n">
-        <v>16328228.62939465</v>
-      </c>
-      <c r="I71" t="n">
-        <v>16412137.10735178</v>
-      </c>
-      <c r="J71" t="n">
-        <v>16492012.40174133</v>
-      </c>
-      <c r="K71" t="n">
-        <v>16568065.49217951</v>
-      </c>
-      <c r="L71" t="n">
-        <v>16640497.12701774</v>
-      </c>
-      <c r="M71" t="n">
-        <v>16709498.06040049</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4553089.657534927</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4549542.536250681</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4545744.260763884</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4541751.738711894</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4537613.852416039</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4533372.440631747</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4529063.175658435</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4524716.343973637</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4520357.538658768</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4516008.271693915</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4511686.513957739</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4507407.170280099</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>4249136.401143491</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4297192.868036747</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4343085.066673636</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4386908.175840855</v>
-      </c>
-      <c r="F73" t="n">
-        <v>4428754.813031316</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4468714.841314971</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4506875.220404446</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4543319.897903323</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4578129.736623883</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4611382.473817647</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4643152.708299875</v>
-      </c>
-      <c r="M73" t="n">
-        <v>4673511.911613524</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16551618.42843843</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16547812.17515618</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16544110.87430894</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16540510.9901818</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16537008.36907524</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16533598.49629033</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16530276.69096166</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16527038.25118148</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16523878.5596751</v>
-      </c>
-      <c r="K74" t="n">
-        <v>16520793.15836573</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16517777.79871476</v>
-      </c>
-      <c r="M74" t="n">
-        <v>16514828.47333241</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>20800848.36518455</v>
-      </c>
-      <c r="C75" t="n">
-        <v>20910770.45970887</v>
-      </c>
-      <c r="D75" t="n">
-        <v>21014794.70972788</v>
-      </c>
-      <c r="E75" t="n">
-        <v>21113275.50846422</v>
-      </c>
-      <c r="F75" t="n">
-        <v>21206545.65753424</v>
-      </c>
-      <c r="G75" t="n">
-        <v>21294917.47756612</v>
-      </c>
-      <c r="H75" t="n">
-        <v>21378683.90846676</v>
-      </c>
-      <c r="I75" t="n">
-        <v>21458119.58900017</v>
-      </c>
-      <c r="J75" t="n">
-        <v>21533481.90763557</v>
-      </c>
-      <c r="K75" t="n">
-        <v>21605012.01883972</v>
-      </c>
-      <c r="L75" t="n">
-        <v>21672935.8204335</v>
-      </c>
-      <c r="M75" t="n">
-        <v>21737464.88916624</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3857471.487130642</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3929614.878097177</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3998579.87305665</v>
-      </c>
-      <c r="E76" t="n">
-        <v>4064495.302607775</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4127488.616098881</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4187685.16546607</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4245207.629427075</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4300175.559170723</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4352705.028735876</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4402908.375042558</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4450894.014192343</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4496766.322309732</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>7301242.590420604</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7430279.65054822</v>
-      </c>
-      <c r="D77" t="n">
-        <v>7553336.833902478</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7670682.091920376</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7782577.567147732</v>
-      </c>
-      <c r="G77" t="n">
-        <v>7889278.473557711</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7991032.246829152</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8088077.923372388</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8180645.711867213</v>
-      </c>
-      <c r="K77" t="n">
-        <v>8268956.725573301</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8353222.847831488</v>
-      </c>
-      <c r="M77" t="n">
-        <v>8433646.706876993</v>
+        <v>2198485.464880735</v>
       </c>
     </row>
   </sheetData>
